--- a/Banco de Dados/Dicionário de Dados.xlsx
+++ b/Banco de Dados/Dicionário de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moise\Documents\Faculdade\TCC\BD\YogaCommerce\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E9D81A-9D02-4A46-B156-E7EB3D435D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D709C3A-987A-4F7E-89E2-63A083564CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="0" windowWidth="15345" windowHeight="15585" xr2:uid="{779EC71D-9CF7-46E6-8466-F39F166F623A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="9405" windowHeight="15585" xr2:uid="{779EC71D-9CF7-46E6-8466-F39F166F623A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,22 +370,7 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -400,10 +385,25 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B78AE25A-4EA5-4661-89E4-D13E2835827B}" name="Table2" displayName="Table2" ref="A1:G53" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B78AE25A-4EA5-4661-89E4-D13E2835827B}" name="Table2" displayName="Table2" ref="A1:G53" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G53" xr:uid="{B78AE25A-4EA5-4661-89E4-D13E2835827B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -442,13 +442,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C5177385-19EF-4E5B-9FA3-98D8850B6FBD}" name="Tabela" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A5627ABD-5E4F-47CA-965F-87AFE093AE3C}" name="Nome da Coluna" dataDxfId="14" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{962ABC5E-79B1-4564-A55B-A167900616C0}" name="Tipo de Dados" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{023890EC-F9EA-4F16-A138-B71338BEACF3}" name="Comprimento" dataDxfId="12" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1C0457BF-A431-4595-912F-AAC6FA9482C2}" name="Restrições" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1D2B34D4-C790-4588-813C-EE9DBC1E852F}" name="Valor Padrão" dataDxfId="10" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C7C3E046-3B88-4E61-B662-F122AB0C8172}" name="Descrição" totalsRowFunction="count" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C5177385-19EF-4E5B-9FA3-98D8850B6FBD}" name="Tabela" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{A5627ABD-5E4F-47CA-965F-87AFE093AE3C}" name="Nome da Coluna" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{962ABC5E-79B1-4564-A55B-A167900616C0}" name="Tipo de Dados" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{023890EC-F9EA-4F16-A138-B71338BEACF3}" name="Comprimento" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1C0457BF-A431-4595-912F-AAC6FA9482C2}" name="Restrições" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1D2B34D4-C790-4588-813C-EE9DBC1E852F}" name="Valor Padrão" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C7C3E046-3B88-4E61-B662-F122AB0C8172}" name="Descrição" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,22 +780,22 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -818,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -862,7 +862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -883,7 +883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -904,7 +904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -925,7 +925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -946,7 +946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -967,7 +967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -988,7 +988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.5">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.5">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.5">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.5">
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.5">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.5">
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.5">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.5">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.5">
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.5">
       <c r="B43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.5">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.5">
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.5">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.5">
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
